--- a/Code/Results/Cases/Case_0_125/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_125/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1709351188852395</v>
+        <v>0.225969755228931</v>
       </c>
       <c r="D2">
-        <v>0.003814061620046161</v>
+        <v>0.006298024303401206</v>
       </c>
       <c r="E2">
-        <v>0.1413700081305365</v>
+        <v>0.1393848103014008</v>
       </c>
       <c r="F2">
-        <v>1.092556231293088</v>
+        <v>0.7533793398548454</v>
       </c>
       <c r="G2">
-        <v>1.069117092713839</v>
+        <v>0.6201500300062435</v>
       </c>
       <c r="H2">
-        <v>0.5729436093515687</v>
+        <v>0.6454766957521656</v>
       </c>
       <c r="I2">
-        <v>0.9506984879442655</v>
+        <v>0.753837131855704</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2050779805360889</v>
+        <v>0.1684885293038576</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.418947769698548</v>
+        <v>2.51363540873939</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1549815055695234</v>
+        <v>0.2233335232329381</v>
       </c>
       <c r="D3">
-        <v>0.003582277351000585</v>
+        <v>0.006197097785202388</v>
       </c>
       <c r="E3">
-        <v>0.1258901440842592</v>
+        <v>0.136342067306547</v>
       </c>
       <c r="F3">
-        <v>0.9588548390783558</v>
+        <v>0.7228535965416398</v>
       </c>
       <c r="G3">
-        <v>0.9330775771858129</v>
+        <v>0.5877630113455865</v>
       </c>
       <c r="H3">
-        <v>0.5140039008981034</v>
+        <v>0.6345060536392282</v>
       </c>
       <c r="I3">
-        <v>0.8385402002036457</v>
+        <v>0.7294046322488583</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1810387957058097</v>
+        <v>0.1634208008851488</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.006747929598788</v>
+        <v>2.42162939103568</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1454081563263401</v>
+        <v>0.2218256378161954</v>
       </c>
       <c r="D4">
-        <v>0.003438507203252783</v>
+        <v>0.006133699267312664</v>
       </c>
       <c r="E4">
-        <v>0.1165769268940586</v>
+        <v>0.1345519741413064</v>
       </c>
       <c r="F4">
-        <v>0.8781009553847525</v>
+        <v>0.7045593754398425</v>
       </c>
       <c r="G4">
-        <v>0.8508445890338692</v>
+        <v>0.5682508425061883</v>
       </c>
       <c r="H4">
-        <v>0.4785831765967004</v>
+        <v>0.6281106818067173</v>
       </c>
       <c r="I4">
-        <v>0.7708910520997563</v>
+        <v>0.7148438111719955</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1665594289449217</v>
+        <v>0.16040954894941</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.757996785443169</v>
+        <v>2.366627523460778</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1415585954764964</v>
+        <v>0.2212390354097948</v>
       </c>
       <c r="D5">
-        <v>0.00337953829092541</v>
+        <v>0.006107505335622321</v>
       </c>
       <c r="E5">
-        <v>0.1128255639766174</v>
+        <v>0.1338421385254591</v>
       </c>
       <c r="F5">
-        <v>0.8454956523573145</v>
+        <v>0.6972170454625797</v>
       </c>
       <c r="G5">
-        <v>0.8176243643206789</v>
+        <v>0.5603932113413919</v>
       </c>
       <c r="H5">
-        <v>0.4643258690010299</v>
+        <v>0.6255902006696203</v>
       </c>
       <c r="I5">
-        <v>0.743599656759379</v>
+        <v>0.709020924664209</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1607227222801271</v>
+        <v>0.1592076312723947</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.657610952523243</v>
+        <v>2.34458814483088</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1409223799854686</v>
+        <v>0.2211433145577928</v>
       </c>
       <c r="D6">
-        <v>0.003369723107089939</v>
+        <v>0.006103134225755369</v>
       </c>
       <c r="E6">
-        <v>0.1122051806006645</v>
+        <v>0.1337254568156041</v>
       </c>
       <c r="F6">
-        <v>0.840098879774942</v>
+        <v>0.6960046614145909</v>
       </c>
       <c r="G6">
-        <v>0.8121247147698654</v>
+        <v>0.5590941131201532</v>
       </c>
       <c r="H6">
-        <v>0.4619686819669084</v>
+        <v>0.625176852670549</v>
       </c>
       <c r="I6">
-        <v>0.7390837880514809</v>
+        <v>0.7080607263993954</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1597571997411293</v>
+        <v>0.1590095740485893</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.640998219981583</v>
+        <v>2.340951120064716</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1453560360488524</v>
+        <v>0.2218176138076871</v>
       </c>
       <c r="D7">
-        <v>0.003437713490935579</v>
+        <v>0.006133347457781824</v>
       </c>
       <c r="E7">
-        <v>0.1165261626541003</v>
+        <v>0.1345423215371859</v>
       </c>
       <c r="F7">
-        <v>0.877660047517935</v>
+        <v>0.7044598979951786</v>
       </c>
       <c r="G7">
-        <v>0.8503954389799304</v>
+        <v>0.5681444924854873</v>
       </c>
       <c r="H7">
-        <v>0.4783902020256932</v>
+        <v>0.6280763427505178</v>
       </c>
       <c r="I7">
-        <v>0.770521910490956</v>
+        <v>0.714764833313815</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1664804636959545</v>
+        <v>0.1603932375218164</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.756639109398975</v>
+        <v>2.366328777580151</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.165385560767902</v>
+        <v>0.2250378015571499</v>
       </c>
       <c r="D8">
-        <v>0.003734433481874078</v>
+        <v>0.006263521966550556</v>
       </c>
       <c r="E8">
-        <v>0.1359901327827728</v>
+        <v>0.1383194406000179</v>
       </c>
       <c r="F8">
-        <v>1.046156719155803</v>
+        <v>0.7427608516765076</v>
       </c>
       <c r="G8">
-        <v>1.021919643657071</v>
+        <v>0.6089053112631007</v>
       </c>
       <c r="H8">
-        <v>0.5524515347615591</v>
+        <v>0.641623327560481</v>
       </c>
       <c r="I8">
-        <v>0.9117553289741949</v>
+        <v>0.7453212505271409</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1967267252728817</v>
+        <v>0.1667203203117538</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.275852157537997</v>
+        <v>2.481602170323811</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2066326205679445</v>
+        <v>0.2322312903144024</v>
       </c>
       <c r="D9">
-        <v>0.004305695733052062</v>
+        <v>0.006507425466285355</v>
       </c>
       <c r="E9">
-        <v>0.1758880622265551</v>
+        <v>0.1463477039679475</v>
       </c>
       <c r="F9">
-        <v>1.388875849308505</v>
+        <v>0.821439386749816</v>
       </c>
       <c r="G9">
-        <v>1.370292198255243</v>
+        <v>0.6918155861135062</v>
       </c>
       <c r="H9">
-        <v>0.7045809393086131</v>
+        <v>0.6708929033100901</v>
       </c>
       <c r="I9">
-        <v>1.199817415203015</v>
+        <v>0.8087480417135851</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.258602119047552</v>
+        <v>0.179926761494059</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.333816412712679</v>
+        <v>2.71950980883895</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2384484531277735</v>
+        <v>0.2380526478983285</v>
       </c>
       <c r="D10">
-        <v>0.00472060667116736</v>
+        <v>0.006679668274886197</v>
       </c>
       <c r="E10">
-        <v>0.2065728304296499</v>
+        <v>0.1526272775550055</v>
       </c>
       <c r="F10">
-        <v>1.650699818044117</v>
+        <v>0.8814422773570101</v>
       </c>
       <c r="G10">
-        <v>1.636192068158181</v>
+        <v>0.7545720582327533</v>
       </c>
       <c r="H10">
-        <v>0.8217641182305897</v>
+        <v>0.6940505126202083</v>
       </c>
       <c r="I10">
-        <v>1.420425838628404</v>
+        <v>0.8575018524364708</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3061312707617958</v>
+        <v>0.1901217526640693</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.143461886391776</v>
+        <v>2.901595926179937</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2533264553396037</v>
+        <v>0.2408175807804298</v>
       </c>
       <c r="D11">
-        <v>0.004908808894210637</v>
+        <v>0.006756512684301441</v>
       </c>
       <c r="E11">
-        <v>0.2209077807985764</v>
+        <v>0.1555673673806339</v>
       </c>
       <c r="F11">
-        <v>1.772608002735907</v>
+        <v>0.9092213429262728</v>
       </c>
       <c r="G11">
-        <v>1.759961884894921</v>
+        <v>0.7835277731551002</v>
       </c>
       <c r="H11">
-        <v>0.8765464521694071</v>
+        <v>0.7049457602524853</v>
       </c>
       <c r="I11">
-        <v>1.523273460825891</v>
+        <v>0.8801529968834814</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.328327279438966</v>
+        <v>0.1948677723273704</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.520805555314439</v>
+        <v>2.986031532157369</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2590254885831627</v>
+        <v>0.2418813775626916</v>
       </c>
       <c r="D12">
-        <v>0.004980048786521252</v>
+        <v>0.006785393980866417</v>
       </c>
       <c r="E12">
-        <v>0.2263972729833839</v>
+        <v>0.156692736421931</v>
       </c>
       <c r="F12">
-        <v>1.819231198819395</v>
+        <v>0.9198103212405471</v>
       </c>
       <c r="G12">
-        <v>1.807293423986351</v>
+        <v>0.7945514864978236</v>
       </c>
       <c r="H12">
-        <v>0.8975304249661065</v>
+        <v>0.709123415987591</v>
       </c>
       <c r="I12">
-        <v>1.562626836586773</v>
+        <v>0.8887985810057728</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3368263772606497</v>
+        <v>0.196680603669094</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.665176547468377</v>
+        <v>3.018236523349401</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2577950907653275</v>
+        <v>0.2416515239705177</v>
       </c>
       <c r="D13">
-        <v>0.004964706354030568</v>
+        <v>0.006779183587957149</v>
       </c>
       <c r="E13">
-        <v>0.2252121733590826</v>
+        <v>0.1564498331702566</v>
       </c>
       <c r="F13">
-        <v>1.8091686857517</v>
+        <v>0.9175266955690518</v>
       </c>
       <c r="G13">
-        <v>1.797078166361416</v>
+        <v>0.792174713423293</v>
       </c>
       <c r="H13">
-        <v>0.8930000603237715</v>
+        <v>0.7082213766728103</v>
       </c>
       <c r="I13">
-        <v>1.554132443900784</v>
+        <v>0.8869335699643983</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3349915745275638</v>
+        <v>0.1962894826811663</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.634014830967544</v>
+        <v>3.01129031868021</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2537939729928809</v>
+        <v>0.2409047638335409</v>
       </c>
       <c r="D14">
-        <v>0.004914670086868966</v>
+        <v>0.006758893140791145</v>
       </c>
       <c r="E14">
-        <v>0.2213581362300516</v>
+        <v>0.1556597111586768</v>
       </c>
       <c r="F14">
-        <v>1.776434177667483</v>
+        <v>0.9100911079304268</v>
       </c>
       <c r="G14">
-        <v>1.763846253613508</v>
+        <v>0.7844335207502411</v>
       </c>
       <c r="H14">
-        <v>0.8782678608639003</v>
+        <v>0.7052884191755311</v>
       </c>
       <c r="I14">
-        <v>1.526502629036329</v>
+        <v>0.8808629091430902</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3290245538638317</v>
+        <v>0.195016601795146</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.532652305708496</v>
+        <v>2.988676422814763</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2513518587740009</v>
+        <v>0.2404495360860608</v>
       </c>
       <c r="D15">
-        <v>0.004884019405356099</v>
+        <v>0.006746436237452968</v>
       </c>
       <c r="E15">
-        <v>0.2190056120326531</v>
+        <v>0.1551773045707279</v>
       </c>
       <c r="F15">
-        <v>1.756444904128941</v>
+        <v>0.9055456700210698</v>
       </c>
       <c r="G15">
-        <v>1.743552819181048</v>
+        <v>0.7796994822955128</v>
       </c>
       <c r="H15">
-        <v>0.8692759441534008</v>
+        <v>0.7034986516532626</v>
       </c>
       <c r="I15">
-        <v>1.509633130535875</v>
+        <v>0.8771533240768434</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.325382170213274</v>
+        <v>0.1942389606826538</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.47076310231779</v>
+        <v>2.974854862739676</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.237484857949255</v>
+        <v>0.2378743014690343</v>
       </c>
       <c r="D16">
-        <v>0.004708300330580784</v>
+        <v>0.006674615853810906</v>
       </c>
       <c r="E16">
-        <v>0.2056441674636247</v>
+        <v>0.1524368170123225</v>
       </c>
       <c r="F16">
-        <v>1.642793918534394</v>
+        <v>0.8796365894038018</v>
       </c>
       <c r="G16">
-        <v>1.628164848231478</v>
+        <v>0.7526879522886247</v>
       </c>
       <c r="H16">
-        <v>0.8182158955463876</v>
+        <v>0.6933457404820444</v>
       </c>
       <c r="I16">
-        <v>1.413758722609472</v>
+        <v>0.8560310692201085</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3046932172292998</v>
+        <v>0.1898137718290513</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.1189983717465</v>
+        <v>2.896110169810186</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2290862670495102</v>
+        <v>0.2363243752458288</v>
       </c>
       <c r="D17">
-        <v>0.004600395802480506</v>
+        <v>0.006630169038682965</v>
       </c>
       <c r="E17">
-        <v>0.1975485458841533</v>
+        <v>0.1507770096439955</v>
       </c>
       <c r="F17">
-        <v>1.573829006475449</v>
+        <v>0.8638661227901139</v>
       </c>
       <c r="G17">
-        <v>1.558137825724515</v>
+        <v>0.7362217736789773</v>
       </c>
       <c r="H17">
-        <v>0.7872884331356147</v>
+        <v>0.6872096428431007</v>
       </c>
       <c r="I17">
-        <v>1.355614465804649</v>
+        <v>0.8431944144987256</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.292156139233569</v>
+        <v>0.1871268257064287</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.905638509983532</v>
+        <v>2.848213919115551</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2242932790345264</v>
+        <v>0.2354438902956417</v>
       </c>
       <c r="D18">
-        <v>0.004538277353907105</v>
+        <v>0.00660446235897183</v>
       </c>
       <c r="E18">
-        <v>0.1929271187225154</v>
+        <v>0.1498301889176545</v>
       </c>
       <c r="F18">
-        <v>1.534422406591119</v>
+        <v>0.854840864300229</v>
       </c>
       <c r="G18">
-        <v>1.51812087899134</v>
+        <v>0.7267892042888775</v>
       </c>
       <c r="H18">
-        <v>0.7696368626402261</v>
+        <v>0.6837142764616715</v>
       </c>
       <c r="I18">
-        <v>1.322402777752814</v>
+        <v>0.8358556055237187</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2849985064870424</v>
+        <v>0.1855915530932606</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.783757936191478</v>
+        <v>2.820816185126262</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2226767249392196</v>
+        <v>0.2351476614825145</v>
       </c>
       <c r="D19">
-        <v>0.004517234370918999</v>
+        <v>0.006595734150334209</v>
       </c>
       <c r="E19">
-        <v>0.1913681830281888</v>
+        <v>0.1495109605620044</v>
       </c>
       <c r="F19">
-        <v>1.521123070396527</v>
+        <v>0.8517928770304906</v>
       </c>
       <c r="G19">
-        <v>1.504614918570326</v>
+        <v>0.7236020768635001</v>
       </c>
       <c r="H19">
-        <v>0.7636831078196735</v>
+        <v>0.6825366375807107</v>
       </c>
       <c r="I19">
-        <v>1.311196188302077</v>
+        <v>0.8333784499686203</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2825838927331858</v>
+        <v>0.1850734844566659</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.742630034449405</v>
+        <v>2.811565690694522</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2299763661460617</v>
+        <v>0.2364882300525721</v>
       </c>
       <c r="D20">
-        <v>0.004611887746273524</v>
+        <v>0.006634915186035428</v>
       </c>
       <c r="E20">
-        <v>0.1984066713729291</v>
+        <v>0.1509528857278468</v>
       </c>
       <c r="F20">
-        <v>1.581143119885127</v>
+        <v>0.8655402061964139</v>
       </c>
       <c r="G20">
-        <v>1.565564929735245</v>
+        <v>0.7379706567755591</v>
       </c>
       <c r="H20">
-        <v>0.7905663388414723</v>
+        <v>0.6878593268105533</v>
       </c>
       <c r="I20">
-        <v>1.361779737415034</v>
+        <v>0.8445562924830909</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2934851312028286</v>
+        <v>0.1874118009699544</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.928263009592627</v>
+        <v>2.853296933605634</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2549673750301764</v>
+        <v>0.2411236501859406</v>
       </c>
       <c r="D21">
-        <v>0.004929367269690843</v>
+        <v>0.006764858860632827</v>
       </c>
       <c r="E21">
-        <v>0.2224884411332653</v>
+        <v>0.1558914627725514</v>
       </c>
       <c r="F21">
-        <v>1.786036159939869</v>
+        <v>0.9122732289703777</v>
       </c>
       <c r="G21">
-        <v>1.773594224093785</v>
+        <v>0.7867056987995511</v>
       </c>
       <c r="H21">
-        <v>0.8825883483929147</v>
+        <v>0.7061484924561796</v>
       </c>
       <c r="I21">
-        <v>1.534606711127054</v>
+        <v>0.882644160706235</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3307745672828446</v>
+        <v>0.195390053550085</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.562383270876467</v>
+        <v>2.995312397728412</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2716832785898191</v>
+        <v>0.2442509461550486</v>
       </c>
       <c r="D22">
-        <v>0.005136724771663381</v>
+        <v>0.006848513406062295</v>
       </c>
       <c r="E22">
-        <v>0.2385875000029785</v>
+        <v>0.1591891827106195</v>
       </c>
       <c r="F22">
-        <v>1.922652179774246</v>
+        <v>0.9432219894342353</v>
       </c>
       <c r="G22">
-        <v>1.912280967375608</v>
+        <v>0.8188997715168966</v>
       </c>
       <c r="H22">
-        <v>0.9441380764073131</v>
+        <v>0.718403805864483</v>
       </c>
       <c r="I22">
-        <v>1.649958788865774</v>
+        <v>0.9079336965696569</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3556990261844959</v>
+        <v>0.200695351301718</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.985535403724725</v>
+        <v>3.089474715421375</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.262724230623121</v>
+        <v>0.2425729071831881</v>
       </c>
       <c r="D23">
-        <v>0.005026047235531905</v>
+        <v>0.006803982008655396</v>
       </c>
       <c r="E23">
-        <v>0.229959664753288</v>
+        <v>0.1574227102323107</v>
       </c>
       <c r="F23">
-        <v>1.849470044805102</v>
+        <v>0.9266668589498721</v>
       </c>
       <c r="G23">
-        <v>1.837990889707669</v>
+        <v>0.8016857412672209</v>
       </c>
       <c r="H23">
-        <v>0.911149399306737</v>
+        <v>0.7118352587157517</v>
       </c>
       <c r="I23">
-        <v>1.588156258596698</v>
+        <v>0.8943998444289889</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3423416942208206</v>
+        <v>0.1978554671858177</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.758829312923297</v>
+        <v>3.039095115121427</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2295738423615319</v>
+        <v>0.2364141183130499</v>
       </c>
       <c r="D24">
-        <v>0.004606692499725895</v>
+        <v>0.006632769931339766</v>
       </c>
       <c r="E24">
-        <v>0.1980186110327438</v>
+        <v>0.1508733490257086</v>
       </c>
       <c r="F24">
-        <v>1.577835658846638</v>
+        <v>0.8647832241590692</v>
       </c>
       <c r="G24">
-        <v>1.562206384961542</v>
+        <v>0.737179880661273</v>
       </c>
       <c r="H24">
-        <v>0.7890839977498274</v>
+        <v>0.6875655038883508</v>
       </c>
       <c r="I24">
-        <v>1.358991748284367</v>
+        <v>0.843940459256288</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2928841387231813</v>
+        <v>0.187282934103294</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.918032048332805</v>
+        <v>2.850998471484786</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1952327410633927</v>
+        <v>0.2301911261090197</v>
       </c>
       <c r="D25">
-        <v>0.004152137609214179</v>
+        <v>0.006442662609300598</v>
       </c>
       <c r="E25">
-        <v>0.1648782658388726</v>
+        <v>0.1441090771027689</v>
       </c>
       <c r="F25">
-        <v>1.294595820467549</v>
+        <v>0.7997703333636537</v>
       </c>
       <c r="G25">
-        <v>1.274503918027193</v>
+        <v>0.6690645539529498</v>
       </c>
       <c r="H25">
-        <v>0.6625688376489052</v>
+        <v>0.6626847321016385</v>
       </c>
       <c r="I25">
-        <v>1.120484032371138</v>
+        <v>0.7912123505931419</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2415390221558056</v>
+        <v>0.1762679991570337</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.04255324235703</v>
+        <v>2.653873203053593</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_125/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_125/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.225969755228931</v>
+        <v>0.1709351188852537</v>
       </c>
       <c r="D2">
-        <v>0.006298024303401206</v>
+        <v>0.003814061620118991</v>
       </c>
       <c r="E2">
-        <v>0.1393848103014008</v>
+        <v>0.1413700081305649</v>
       </c>
       <c r="F2">
-        <v>0.7533793398548454</v>
+        <v>1.092556231293088</v>
       </c>
       <c r="G2">
-        <v>0.6201500300062435</v>
+        <v>1.069117092713839</v>
       </c>
       <c r="H2">
-        <v>0.6454766957521656</v>
+        <v>0.5729436093515687</v>
       </c>
       <c r="I2">
-        <v>0.753837131855704</v>
+        <v>0.9506984879442655</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1684885293038576</v>
+        <v>0.2050779805361316</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.51363540873939</v>
+        <v>3.418947769698548</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2233335232329381</v>
+        <v>0.1549815055692392</v>
       </c>
       <c r="D3">
-        <v>0.006197097785202388</v>
+        <v>0.003582277350998808</v>
       </c>
       <c r="E3">
-        <v>0.136342067306547</v>
+        <v>0.1258901440842557</v>
       </c>
       <c r="F3">
-        <v>0.7228535965416398</v>
+        <v>0.9588548390783416</v>
       </c>
       <c r="G3">
-        <v>0.5877630113455865</v>
+        <v>0.9330775771857844</v>
       </c>
       <c r="H3">
-        <v>0.6345060536392282</v>
+        <v>0.5140039008981319</v>
       </c>
       <c r="I3">
-        <v>0.7294046322488583</v>
+        <v>0.8385402002036386</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1634208008851488</v>
+        <v>0.18103879570576</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.42162939103568</v>
+        <v>3.006747929598731</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2218256378161954</v>
+        <v>0.1454081563262264</v>
       </c>
       <c r="D4">
-        <v>0.006133699267312664</v>
+        <v>0.003438507203188834</v>
       </c>
       <c r="E4">
-        <v>0.1345519741413064</v>
+        <v>0.1165769268940764</v>
       </c>
       <c r="F4">
-        <v>0.7045593754398425</v>
+        <v>0.8781009553847525</v>
       </c>
       <c r="G4">
-        <v>0.5682508425061883</v>
+        <v>0.8508445890338407</v>
       </c>
       <c r="H4">
-        <v>0.6281106818067173</v>
+        <v>0.4785831765967004</v>
       </c>
       <c r="I4">
-        <v>0.7148438111719955</v>
+        <v>0.7708910520997634</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.16040954894941</v>
+        <v>0.1665594289449217</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.366627523460778</v>
+        <v>2.757996785443197</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2212390354097948</v>
+        <v>0.1415585954766385</v>
       </c>
       <c r="D5">
-        <v>0.006107505335622321</v>
+        <v>0.003379538290987583</v>
       </c>
       <c r="E5">
-        <v>0.1338421385254591</v>
+        <v>0.1128255639766031</v>
       </c>
       <c r="F5">
-        <v>0.6972170454625797</v>
+        <v>0.8454956523573003</v>
       </c>
       <c r="G5">
-        <v>0.5603932113413919</v>
+        <v>0.8176243643207073</v>
       </c>
       <c r="H5">
-        <v>0.6255902006696203</v>
+        <v>0.4643258690010299</v>
       </c>
       <c r="I5">
-        <v>0.709020924664209</v>
+        <v>0.743599656759379</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1592076312723947</v>
+        <v>0.1607227222800987</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.34458814483088</v>
+        <v>2.657610952523243</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2211433145577928</v>
+        <v>0.1409223799852128</v>
       </c>
       <c r="D6">
-        <v>0.006103134225755369</v>
+        <v>0.00336972310720185</v>
       </c>
       <c r="E6">
-        <v>0.1337254568156041</v>
+        <v>0.112205180600661</v>
       </c>
       <c r="F6">
-        <v>0.6960046614145909</v>
+        <v>0.840098879774942</v>
       </c>
       <c r="G6">
-        <v>0.5590941131201532</v>
+        <v>0.8121247147698654</v>
       </c>
       <c r="H6">
-        <v>0.625176852670549</v>
+        <v>0.4619686819667947</v>
       </c>
       <c r="I6">
-        <v>0.7080607263993954</v>
+        <v>0.7390837880514738</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1590095740485893</v>
+        <v>0.1597571997410796</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.340951120064716</v>
+        <v>2.640998219981583</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2218176138076871</v>
+        <v>0.1453560360488666</v>
       </c>
       <c r="D7">
-        <v>0.006133347457781824</v>
+        <v>0.003437713490983541</v>
       </c>
       <c r="E7">
-        <v>0.1345423215371859</v>
+        <v>0.1165261626541039</v>
       </c>
       <c r="F7">
-        <v>0.7044598979951786</v>
+        <v>0.8776600475179492</v>
       </c>
       <c r="G7">
-        <v>0.5681444924854873</v>
+        <v>0.8503954389799588</v>
       </c>
       <c r="H7">
-        <v>0.6280763427505178</v>
+        <v>0.4783902020256932</v>
       </c>
       <c r="I7">
-        <v>0.714764833313815</v>
+        <v>0.770521910490956</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1603932375218164</v>
+        <v>0.1664804636960042</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.366328777580151</v>
+        <v>2.756639109398947</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2250378015571499</v>
+        <v>0.165385560767902</v>
       </c>
       <c r="D8">
-        <v>0.006263521966550556</v>
+        <v>0.003734433481874078</v>
       </c>
       <c r="E8">
-        <v>0.1383194406000179</v>
+        <v>0.1359901327827728</v>
       </c>
       <c r="F8">
-        <v>0.7427608516765076</v>
+        <v>1.046156719155803</v>
       </c>
       <c r="G8">
-        <v>0.6089053112631007</v>
+        <v>1.021919643657043</v>
       </c>
       <c r="H8">
-        <v>0.641623327560481</v>
+        <v>0.5524515347616727</v>
       </c>
       <c r="I8">
-        <v>0.7453212505271409</v>
+        <v>0.9117553289741807</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1667203203117538</v>
+        <v>0.1967267252728249</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.481602170323811</v>
+        <v>3.275852157537884</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2322312903144024</v>
+        <v>0.2066326205679161</v>
       </c>
       <c r="D9">
-        <v>0.006507425466285355</v>
+        <v>0.004305695733084036</v>
       </c>
       <c r="E9">
-        <v>0.1463477039679475</v>
+        <v>0.1758880622265551</v>
       </c>
       <c r="F9">
-        <v>0.821439386749816</v>
+        <v>1.388875849308505</v>
       </c>
       <c r="G9">
-        <v>0.6918155861135062</v>
+        <v>1.370292198255243</v>
       </c>
       <c r="H9">
-        <v>0.6708929033100901</v>
+        <v>0.7045809393086131</v>
       </c>
       <c r="I9">
-        <v>0.8087480417135851</v>
+        <v>1.199817415203</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.179926761494059</v>
+        <v>0.258602119047481</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.71950980883895</v>
+        <v>4.333816412712679</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2380526478983285</v>
+        <v>0.2384484531279014</v>
       </c>
       <c r="D10">
-        <v>0.006679668274886197</v>
+        <v>0.004720606671169136</v>
       </c>
       <c r="E10">
-        <v>0.1526272775550055</v>
+        <v>0.2065728304296783</v>
       </c>
       <c r="F10">
-        <v>0.8814422773570101</v>
+        <v>1.650699818044103</v>
       </c>
       <c r="G10">
-        <v>0.7545720582327533</v>
+        <v>1.636192068158181</v>
       </c>
       <c r="H10">
-        <v>0.6940505126202083</v>
+        <v>0.8217641182305897</v>
       </c>
       <c r="I10">
-        <v>0.8575018524364708</v>
+        <v>1.420425838628418</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1901217526640693</v>
+        <v>0.3061312707616253</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.901595926179937</v>
+        <v>5.143461886391833</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2408175807804298</v>
+        <v>0.2533264553395895</v>
       </c>
       <c r="D11">
-        <v>0.006756512684301441</v>
+        <v>0.004908808894033001</v>
       </c>
       <c r="E11">
-        <v>0.1555673673806339</v>
+        <v>0.2209077807985906</v>
       </c>
       <c r="F11">
-        <v>0.9092213429262728</v>
+        <v>1.772608002735907</v>
       </c>
       <c r="G11">
-        <v>0.7835277731551002</v>
+        <v>1.759961884894921</v>
       </c>
       <c r="H11">
-        <v>0.7049457602524853</v>
+        <v>0.8765464521695208</v>
       </c>
       <c r="I11">
-        <v>0.8801529968834814</v>
+        <v>1.523273460825891</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1948677723273704</v>
+        <v>0.3283272794390371</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.986031532157369</v>
+        <v>5.520805555314439</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2418813775626916</v>
+        <v>0.2590254885830063</v>
       </c>
       <c r="D12">
-        <v>0.006785393980866417</v>
+        <v>0.004980048786542568</v>
       </c>
       <c r="E12">
-        <v>0.156692736421931</v>
+        <v>0.2263972729833768</v>
       </c>
       <c r="F12">
-        <v>0.9198103212405471</v>
+        <v>1.819231198819367</v>
       </c>
       <c r="G12">
-        <v>0.7945514864978236</v>
+        <v>1.807293423986351</v>
       </c>
       <c r="H12">
-        <v>0.709123415987591</v>
+        <v>0.8975304249661065</v>
       </c>
       <c r="I12">
-        <v>0.8887985810057728</v>
+        <v>1.562626836586745</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.196680603669094</v>
+        <v>0.3368263772607349</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.018236523349401</v>
+        <v>5.665176547468377</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2416515239705177</v>
+        <v>0.2577950907652138</v>
       </c>
       <c r="D13">
-        <v>0.006779183587957149</v>
+        <v>0.004964706354011028</v>
       </c>
       <c r="E13">
-        <v>0.1564498331702566</v>
+        <v>0.225212173359111</v>
       </c>
       <c r="F13">
-        <v>0.9175266955690518</v>
+        <v>1.809168685751686</v>
       </c>
       <c r="G13">
-        <v>0.792174713423293</v>
+        <v>1.797078166361416</v>
       </c>
       <c r="H13">
-        <v>0.7082213766728103</v>
+        <v>0.8930000603237715</v>
       </c>
       <c r="I13">
-        <v>0.8869335699643983</v>
+        <v>1.554132443900798</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1962894826811663</v>
+        <v>0.3349915745276064</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.01129031868021</v>
+        <v>5.634014830967487</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2409047638335409</v>
+        <v>0.2537939729928951</v>
       </c>
       <c r="D14">
-        <v>0.006758893140791145</v>
+        <v>0.004914670087067918</v>
       </c>
       <c r="E14">
-        <v>0.1556597111586768</v>
+        <v>0.2213581362300729</v>
       </c>
       <c r="F14">
-        <v>0.9100911079304268</v>
+        <v>1.776434177667468</v>
       </c>
       <c r="G14">
-        <v>0.7844335207502411</v>
+        <v>1.763846253613508</v>
       </c>
       <c r="H14">
-        <v>0.7052884191755311</v>
+        <v>0.8782678608638719</v>
       </c>
       <c r="I14">
-        <v>0.8808629091430902</v>
+        <v>1.526502629036329</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.195016601795146</v>
+        <v>0.3290245538638032</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.988676422814763</v>
+        <v>5.532652305708552</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2404495360860608</v>
+        <v>0.2513518587740293</v>
       </c>
       <c r="D15">
-        <v>0.006746436237452968</v>
+        <v>0.004884019405265505</v>
       </c>
       <c r="E15">
-        <v>0.1551773045707279</v>
+        <v>0.2190056120326318</v>
       </c>
       <c r="F15">
-        <v>0.9055456700210698</v>
+        <v>1.756444904128941</v>
       </c>
       <c r="G15">
-        <v>0.7796994822955128</v>
+        <v>1.743552819181019</v>
       </c>
       <c r="H15">
-        <v>0.7034986516532626</v>
+        <v>0.8692759441534008</v>
       </c>
       <c r="I15">
-        <v>0.8771533240768434</v>
+        <v>1.509633130535889</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1942389606826538</v>
+        <v>0.325382170213274</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.974854862739676</v>
+        <v>5.47076310231779</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2378743014690343</v>
+        <v>0.2374848579490703</v>
       </c>
       <c r="D16">
-        <v>0.006674615853810906</v>
+        <v>0.004708300330470649</v>
       </c>
       <c r="E16">
-        <v>0.1524368170123225</v>
+        <v>0.2056441674635963</v>
       </c>
       <c r="F16">
-        <v>0.8796365894038018</v>
+        <v>1.642793918534394</v>
       </c>
       <c r="G16">
-        <v>0.7526879522886247</v>
+        <v>1.628164848231393</v>
       </c>
       <c r="H16">
-        <v>0.6933457404820444</v>
+        <v>0.8182158955465013</v>
       </c>
       <c r="I16">
-        <v>0.8560310692201085</v>
+        <v>1.413758722609458</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1898137718290513</v>
+        <v>0.3046932172293566</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.896110169810186</v>
+        <v>5.118998371746557</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2363243752458288</v>
+        <v>0.229086267049837</v>
       </c>
       <c r="D17">
-        <v>0.006630169038682965</v>
+        <v>0.004600395802563995</v>
       </c>
       <c r="E17">
-        <v>0.1507770096439955</v>
+        <v>0.1975485458841533</v>
       </c>
       <c r="F17">
-        <v>0.8638661227901139</v>
+        <v>1.573829006475449</v>
       </c>
       <c r="G17">
-        <v>0.7362217736789773</v>
+        <v>1.5581378257246</v>
       </c>
       <c r="H17">
-        <v>0.6872096428431007</v>
+        <v>0.787288433135501</v>
       </c>
       <c r="I17">
-        <v>0.8431944144987256</v>
+        <v>1.355614465804649</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1871268257064287</v>
+        <v>0.292156139233569</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.848213919115551</v>
+        <v>4.905638509983476</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2354438902956417</v>
+        <v>0.2242932790345122</v>
       </c>
       <c r="D18">
-        <v>0.00660446235897183</v>
+        <v>0.004538277353708153</v>
       </c>
       <c r="E18">
-        <v>0.1498301889176545</v>
+        <v>0.1929271187225368</v>
       </c>
       <c r="F18">
-        <v>0.854840864300229</v>
+        <v>1.534422406591133</v>
       </c>
       <c r="G18">
-        <v>0.7267892042888775</v>
+        <v>1.518120878991368</v>
       </c>
       <c r="H18">
-        <v>0.6837142764616715</v>
+        <v>0.7696368626402261</v>
       </c>
       <c r="I18">
-        <v>0.8358556055237187</v>
+        <v>1.322402777752842</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1855915530932606</v>
+        <v>0.2849985064870566</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.820816185126262</v>
+        <v>4.783757936191535</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2351476614825145</v>
+        <v>0.2226767249388075</v>
       </c>
       <c r="D19">
-        <v>0.006595734150334209</v>
+        <v>0.004517234370890577</v>
       </c>
       <c r="E19">
-        <v>0.1495109605620044</v>
+        <v>0.1913681830281888</v>
       </c>
       <c r="F19">
-        <v>0.8517928770304906</v>
+        <v>1.521123070396513</v>
       </c>
       <c r="G19">
-        <v>0.7236020768635001</v>
+        <v>1.504614918570354</v>
       </c>
       <c r="H19">
-        <v>0.6825366375807107</v>
+        <v>0.7636831078196451</v>
       </c>
       <c r="I19">
-        <v>0.8333784499686203</v>
+        <v>1.311196188302063</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1850734844566659</v>
+        <v>0.2825838927331148</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.811565690694522</v>
+        <v>4.742630034449348</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2364882300525721</v>
+        <v>0.2299763661457206</v>
       </c>
       <c r="D20">
-        <v>0.006634915186035428</v>
+        <v>0.004611887746273524</v>
       </c>
       <c r="E20">
-        <v>0.1509528857278468</v>
+        <v>0.1984066713729291</v>
       </c>
       <c r="F20">
-        <v>0.8655402061964139</v>
+        <v>1.581143119885141</v>
       </c>
       <c r="G20">
-        <v>0.7379706567755591</v>
+        <v>1.565564929735274</v>
       </c>
       <c r="H20">
-        <v>0.6878593268105533</v>
+        <v>0.7905663388414723</v>
       </c>
       <c r="I20">
-        <v>0.8445562924830909</v>
+        <v>1.361779737415034</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1874118009699544</v>
+        <v>0.2934851312028712</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.853296933605634</v>
+        <v>4.928263009592683</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2411236501859406</v>
+        <v>0.2549673750297927</v>
       </c>
       <c r="D21">
-        <v>0.006764858860632827</v>
+        <v>0.004929367269690843</v>
       </c>
       <c r="E21">
-        <v>0.1558914627725514</v>
+        <v>0.2224884411332937</v>
       </c>
       <c r="F21">
-        <v>0.9122732289703777</v>
+        <v>1.786036159939869</v>
       </c>
       <c r="G21">
-        <v>0.7867056987995511</v>
+        <v>1.773594224093756</v>
       </c>
       <c r="H21">
-        <v>0.7061484924561796</v>
+        <v>0.8825883483930284</v>
       </c>
       <c r="I21">
-        <v>0.882644160706235</v>
+        <v>1.534606711127068</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.195390053550085</v>
+        <v>0.3307745672827878</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.995312397728412</v>
+        <v>5.562383270876524</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2442509461550486</v>
+        <v>0.2716832785899328</v>
       </c>
       <c r="D22">
-        <v>0.006848513406062295</v>
+        <v>0.005136724771967138</v>
       </c>
       <c r="E22">
-        <v>0.1591891827106195</v>
+        <v>0.23858750000295</v>
       </c>
       <c r="F22">
-        <v>0.9432219894342353</v>
+        <v>1.922652179774232</v>
       </c>
       <c r="G22">
-        <v>0.8188997715168966</v>
+        <v>1.912280967375608</v>
       </c>
       <c r="H22">
-        <v>0.718403805864483</v>
+        <v>0.9441380764073131</v>
       </c>
       <c r="I22">
-        <v>0.9079336965696569</v>
+        <v>1.64995878886576</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.200695351301718</v>
+        <v>0.3556990261844959</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.089474715421375</v>
+        <v>5.985535403724668</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2425729071831881</v>
+        <v>0.262724230623121</v>
       </c>
       <c r="D23">
-        <v>0.006803982008655396</v>
+        <v>0.005026047235627829</v>
       </c>
       <c r="E23">
-        <v>0.1574227102323107</v>
+        <v>0.2299596647532809</v>
       </c>
       <c r="F23">
-        <v>0.9266668589498721</v>
+        <v>1.849470044805102</v>
       </c>
       <c r="G23">
-        <v>0.8016857412672209</v>
+        <v>1.837990889707612</v>
       </c>
       <c r="H23">
-        <v>0.7118352587157517</v>
+        <v>0.9111493993067086</v>
       </c>
       <c r="I23">
-        <v>0.8943998444289889</v>
+        <v>1.588156258596712</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1978554671858177</v>
+        <v>0.3423416942208064</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.039095115121427</v>
+        <v>5.758829312923297</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2364141183130499</v>
+        <v>0.2295738423615177</v>
       </c>
       <c r="D24">
-        <v>0.006632769931339766</v>
+        <v>0.004606692499722342</v>
       </c>
       <c r="E24">
-        <v>0.1508733490257086</v>
+        <v>0.1980186110327438</v>
       </c>
       <c r="F24">
-        <v>0.8647832241590692</v>
+        <v>1.577835658846666</v>
       </c>
       <c r="G24">
-        <v>0.737179880661273</v>
+        <v>1.562206384961627</v>
       </c>
       <c r="H24">
-        <v>0.6875655038883508</v>
+        <v>0.789083997749799</v>
       </c>
       <c r="I24">
-        <v>0.843940459256288</v>
+        <v>1.358991748284382</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.187282934103294</v>
+        <v>0.2928841387231671</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.850998471484786</v>
+        <v>4.918032048332805</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2301911261090197</v>
+        <v>0.1952327410633785</v>
       </c>
       <c r="D25">
-        <v>0.006442662609300598</v>
+        <v>0.004152137609251483</v>
       </c>
       <c r="E25">
-        <v>0.1441090771027689</v>
+        <v>0.1648782658388726</v>
       </c>
       <c r="F25">
-        <v>0.7997703333636537</v>
+        <v>1.294595820467521</v>
       </c>
       <c r="G25">
-        <v>0.6690645539529498</v>
+        <v>1.274503918027307</v>
       </c>
       <c r="H25">
-        <v>0.6626847321016385</v>
+        <v>0.6625688376487915</v>
       </c>
       <c r="I25">
-        <v>0.7912123505931419</v>
+        <v>1.120484032371166</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1762679991570337</v>
+        <v>0.2415390221557772</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.653873203053593</v>
+        <v>4.042553242357087</v>
       </c>
     </row>
   </sheetData>
